--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.01067041703742267</v>
+        <v>-0.01333045214244421</v>
       </c>
       <c r="C2">
-        <v>0.007057192034978962</v>
+        <v>0.009039942802703692</v>
       </c>
       <c r="D2">
-        <v>0.01525233204564693</v>
+        <v>0.01343599567080229</v>
       </c>
       <c r="E2">
-        <v>0.02049196458047175</v>
+        <v>0.02462870806001176</v>
       </c>
       <c r="F2">
-        <v>0.01793410985380188</v>
+        <v>0.02314231567142106</v>
       </c>
       <c r="G2">
-        <v>0.01181489305664333</v>
+        <v>0.01453242771976642</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.01074063428584812</v>
+        <v>-0.01007717801914051</v>
       </c>
       <c r="C3">
-        <v>0.009330690160758329</v>
+        <v>0.008834966728739756</v>
       </c>
       <c r="D3">
-        <v>0.01370736721251349</v>
+        <v>0.01495185350075873</v>
       </c>
       <c r="E3">
-        <v>0.02071364804695487</v>
+        <v>0.02048509945439452</v>
       </c>
       <c r="F3">
-        <v>0.01920479750067955</v>
+        <v>0.01737317339350803</v>
       </c>
       <c r="G3">
-        <v>0.00991884131155291</v>
+        <v>0.01398599644993229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.706585668684617E-06</v>
+        <v>-0.2876438308833752</v>
       </c>
       <c r="C4">
-        <v>0.001019391655054882</v>
+        <v>0.2211811128437759</v>
       </c>
       <c r="D4">
-        <v>0.001869222969869051</v>
+        <v>0.08730335477175141</v>
       </c>
       <c r="E4">
-        <v>0.002143218286974073</v>
+        <v>0.5928902642609056</v>
       </c>
       <c r="F4">
-        <v>0.002220233909708724</v>
+        <v>0.4912528714567798</v>
       </c>
       <c r="G4">
-        <v>0.001623205981845076</v>
+        <v>0.4115063371985866</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.007901709393594721</v>
+        <v>-2.045372637062279E-06</v>
       </c>
       <c r="C5">
-        <v>0.008556519117242652</v>
+        <v>0.0009670676947044182</v>
       </c>
       <c r="D5">
-        <v>0.009105907280158676</v>
+        <v>0.0009084153393852732</v>
       </c>
       <c r="E5">
-        <v>0.01598012307561043</v>
+        <v>0.002070150553283552</v>
       </c>
       <c r="F5">
-        <v>0.01798761115620558</v>
+        <v>0.001680211807113319</v>
       </c>
       <c r="G5">
-        <v>0.01138298510544061</v>
+        <v>0.00169570603998649</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4107895236682845</v>
+        <v>-0.2460538203393554</v>
       </c>
       <c r="C6">
-        <v>0.3740067163715204</v>
+        <v>0.1719940368788925</v>
       </c>
       <c r="D6">
-        <v>-0.1366614774862272</v>
+        <v>0.1078970863313798</v>
       </c>
       <c r="E6">
-        <v>1.197943736859041</v>
+        <v>0.5036622474587683</v>
       </c>
       <c r="F6">
-        <v>0.6207017526106343</v>
+        <v>0.3334784945832425</v>
       </c>
       <c r="G6">
-        <v>0.3774291320525018</v>
+        <v>0.2401469908334515</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.01015363743070747</v>
+        <v>-0.4255407660166575</v>
       </c>
       <c r="C7">
-        <v>0.01077457634517309</v>
+        <v>0.3155661387012575</v>
       </c>
       <c r="D7">
-        <v>0.009368857366787843</v>
+        <v>0.06417830599522648</v>
       </c>
       <c r="E7">
-        <v>0.01655033800916771</v>
+        <v>0.9833447186679498</v>
       </c>
       <c r="F7">
-        <v>0.02070002554034493</v>
+        <v>0.5784670676420814</v>
       </c>
       <c r="G7">
-        <v>0.01409644967073764</v>
+        <v>0.3648503207043838</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.223359683160567E-06</v>
+        <v>-0.09377962965138971</v>
       </c>
       <c r="C8">
-        <v>0.0006775509362100008</v>
+        <v>0.06913644189872097</v>
       </c>
       <c r="D8">
-        <v>0.001113941167950879</v>
+        <v>0.09577923826389968</v>
       </c>
       <c r="E8">
-        <v>0.001486651542271966</v>
+        <v>0.1670360073913907</v>
       </c>
       <c r="F8">
-        <v>0.001494462673541817</v>
+        <v>0.1429178450315</v>
       </c>
       <c r="G8">
-        <v>0.001183457008030569</v>
+        <v>0.1134453673070992</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.06163483814746441</v>
+        <v>-0.162358870954199</v>
       </c>
       <c r="C9">
-        <v>0.02199760133173908</v>
+        <v>0.08895837265243743</v>
       </c>
       <c r="D9">
-        <v>0.0686747139931177</v>
+        <v>0.1395632037112445</v>
       </c>
       <c r="E9">
-        <v>0.1303842537472885</v>
+        <v>0.3442071555237565</v>
       </c>
       <c r="F9">
-        <v>0.1466709670845455</v>
+        <v>0.2984278090398526</v>
       </c>
       <c r="G9">
-        <v>0.07113503061807308</v>
+        <v>0.2689726462505192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1760615510744608</v>
+        <v>-0.2482829475067555</v>
       </c>
       <c r="C10">
-        <v>0.05498733208994264</v>
+        <v>0.08806705841156973</v>
       </c>
       <c r="D10">
-        <v>0.210660704971858</v>
+        <v>0.1622898734551141</v>
       </c>
       <c r="E10">
-        <v>0.3859704931304564</v>
+        <v>0.5212272249398375</v>
       </c>
       <c r="F10">
-        <v>0.3396717887365355</v>
+        <v>0.3345922584566682</v>
       </c>
       <c r="G10">
-        <v>0.1325186782225272</v>
+        <v>0.3736270592566172</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.3536664248378442</v>
+        <v>-0.05499754234485353</v>
       </c>
       <c r="C11">
-        <v>0.1803691255620527</v>
+        <v>0.04648366754249205</v>
       </c>
       <c r="D11">
-        <v>0.05133340051241934</v>
+        <v>0.03408880775701532</v>
       </c>
       <c r="E11">
-        <v>1.134355574599885</v>
+        <v>0.1512789492607457</v>
       </c>
       <c r="F11">
-        <v>0.3552419730591766</v>
+        <v>0.1178521062819044</v>
       </c>
       <c r="G11">
-        <v>0.4136104728524034</v>
+        <v>0.0888924183358413</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1835848699649478</v>
+        <v>-0.211198955292571</v>
       </c>
       <c r="C12">
-        <v>0.1747886768284693</v>
+        <v>0.103902441694621</v>
       </c>
       <c r="D12">
-        <v>0.1324613829993421</v>
+        <v>0.2104751021367265</v>
       </c>
       <c r="E12">
-        <v>0.316225613965263</v>
+        <v>0.3789377214131614</v>
       </c>
       <c r="F12">
-        <v>0.3665665019088249</v>
+        <v>0.3717147480704507</v>
       </c>
       <c r="G12">
-        <v>0.1764945378233456</v>
+        <v>0.1819464984287397</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.889100689653563E-06</v>
+        <v>-0.2889005268427922</v>
       </c>
       <c r="C13">
-        <v>0.0007138772050237852</v>
+        <v>0.1617095459653401</v>
       </c>
       <c r="D13">
-        <v>0.001477856571476741</v>
+        <v>0.07865537172203148</v>
       </c>
       <c r="E13">
-        <v>0.001871151557884921</v>
+        <v>0.6156874146623457</v>
       </c>
       <c r="F13">
-        <v>0.002053895095391265</v>
+        <v>0.3996554731248572</v>
       </c>
       <c r="G13">
-        <v>0.001111826927613546</v>
+        <v>0.6313602301570181</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.935638175543592E-06</v>
+        <v>-0.01293434946921276</v>
       </c>
       <c r="C14">
-        <v>0.0008441785029920378</v>
+        <v>0.008603486570836464</v>
       </c>
       <c r="D14">
-        <v>0.001505311006126287</v>
+        <v>0.01475783906891914</v>
       </c>
       <c r="E14">
-        <v>0.001770958279059843</v>
+        <v>0.02263575455602959</v>
       </c>
       <c r="F14">
-        <v>0.001814688373956571</v>
+        <v>0.02048728666285061</v>
       </c>
       <c r="G14">
-        <v>0.001590133702851276</v>
+        <v>0.01832419486587091</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3974770834828879</v>
+        <v>-0.3657361600413136</v>
       </c>
       <c r="C15">
-        <v>0.2858487708069068</v>
+        <v>0.1131581957956767</v>
       </c>
       <c r="D15">
-        <v>0.2680287270422199</v>
+        <v>0.17711149903631</v>
       </c>
       <c r="E15">
-        <v>0.9859814580923881</v>
+        <v>0.8206659136819047</v>
       </c>
       <c r="F15">
-        <v>0.3557392504630367</v>
+        <v>0.5845604368380547</v>
       </c>
       <c r="G15">
-        <v>0.5761857272794902</v>
+        <v>0.3110585802686789</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.303009867365046E-06</v>
+        <v>-0.06320954686611409</v>
       </c>
       <c r="C16">
-        <v>0.001130085744559348</v>
+        <v>0.01392323535674372</v>
       </c>
       <c r="D16">
-        <v>0.000996585650814015</v>
+        <v>0.05792387546283731</v>
       </c>
       <c r="E16">
-        <v>0.001498440678832029</v>
+        <v>0.1560022475090395</v>
       </c>
       <c r="F16">
-        <v>0.001507963018927685</v>
+        <v>0.1409941893041886</v>
       </c>
       <c r="G16">
-        <v>0.001116122285199108</v>
+        <v>0.08119700121149448</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2905015144650644</v>
+        <v>-0.4678505498391183</v>
       </c>
       <c r="C17">
-        <v>0.2048323701356499</v>
+        <v>-0.07212748418758622</v>
       </c>
       <c r="D17">
-        <v>0.3110029941891272</v>
+        <v>0.01419177608338287</v>
       </c>
       <c r="E17">
-        <v>0.9643248161176693</v>
+        <v>1.110734224384077</v>
       </c>
       <c r="F17">
-        <v>0.2303408377099077</v>
+        <v>0.6927085958028928</v>
       </c>
       <c r="G17">
-        <v>0.2660091284966511</v>
+        <v>0.4344262864067267</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.008534442618655996</v>
+        <v>-0.009559134003063022</v>
       </c>
       <c r="C18">
-        <v>0.005346208184448815</v>
+        <v>0.01040806929951379</v>
       </c>
       <c r="D18">
-        <v>0.01372656166177569</v>
+        <v>0.01297958178218604</v>
       </c>
       <c r="E18">
-        <v>0.01597548902240671</v>
+        <v>0.02061125060356989</v>
       </c>
       <c r="F18">
-        <v>0.01848735107461678</v>
+        <v>0.01763520184750434</v>
       </c>
       <c r="G18">
-        <v>0.01078235849911238</v>
+        <v>0.01200796058637684</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.297545969502503E-06</v>
+        <v>-0.1666357005273006</v>
       </c>
       <c r="C19">
-        <v>0.0007341611509547586</v>
+        <v>0.0809826191497016</v>
       </c>
       <c r="D19">
-        <v>0.0007770245090044529</v>
+        <v>0.1477846870567086</v>
       </c>
       <c r="E19">
-        <v>0.001527848736943887</v>
+        <v>0.3236774764468892</v>
       </c>
       <c r="F19">
-        <v>0.001858236080707186</v>
+        <v>0.3397005401126681</v>
       </c>
       <c r="G19">
-        <v>0.001035098658409565</v>
+        <v>0.2132880643719007</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.007207245807954675</v>
+        <v>-0.1590763977360587</v>
       </c>
       <c r="C20">
-        <v>0.004981206016412787</v>
+        <v>0.1182296844053313</v>
       </c>
       <c r="D20">
-        <v>0.01051236438333851</v>
+        <v>0.1093095794635472</v>
       </c>
       <c r="E20">
-        <v>0.0201178392915149</v>
+        <v>0.4039474995278629</v>
       </c>
       <c r="F20">
-        <v>0.01353348691623532</v>
+        <v>0.2245053513506858</v>
       </c>
       <c r="G20">
-        <v>0.008295991773635832</v>
+        <v>0.2837335815297528</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.3339925435415914</v>
+        <v>-0.6825701758902544</v>
       </c>
       <c r="C21">
-        <v>-0.01851640001757949</v>
+        <v>0.1413346685582983</v>
       </c>
       <c r="D21">
-        <v>0.1929315428129273</v>
+        <v>-0.2844778718076728</v>
       </c>
       <c r="E21">
-        <v>0.5105219214463124</v>
+        <v>1.361029671243245</v>
       </c>
       <c r="F21">
-        <v>0.7224394218575148</v>
+        <v>0.9313467979558735</v>
       </c>
       <c r="G21">
-        <v>0.4592034056402606</v>
+        <v>0.7638363681489708</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.4422889812304503</v>
+        <v>-0.2633188111980212</v>
       </c>
       <c r="C22">
-        <v>0.1657881302360336</v>
+        <v>-0.004391136235749203</v>
       </c>
       <c r="D22">
-        <v>0.28587136769846</v>
+        <v>0.2884635332145263</v>
       </c>
       <c r="E22">
-        <v>0.4983716017666461</v>
+        <v>0.6922726427877148</v>
       </c>
       <c r="F22">
-        <v>0.9442775888436036</v>
+        <v>0.277642234405546</v>
       </c>
       <c r="G22">
-        <v>0.2893815018360538</v>
+        <v>0.4320336180151886</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.991300668353233E-06</v>
+        <v>-0.3879254096602753</v>
       </c>
       <c r="C23">
-        <v>0.001002091040634113</v>
+        <v>0.1105372202604317</v>
       </c>
       <c r="D23">
-        <v>0.001089498093699667</v>
+        <v>0.3002063988897247</v>
       </c>
       <c r="E23">
-        <v>0.001675876159181678</v>
+        <v>1.007255320752268</v>
       </c>
       <c r="F23">
-        <v>0.002099004576415439</v>
+        <v>0.4894291585254093</v>
       </c>
       <c r="G23">
-        <v>0.001695352175546176</v>
+        <v>0.2861969735848843</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.01061163231447299</v>
+        <v>-0.2322730584378167</v>
       </c>
       <c r="C24">
-        <v>0.005804457839631519</v>
+        <v>-0.03796378957771172</v>
       </c>
       <c r="D24">
-        <v>0.01458266849740053</v>
+        <v>0.1842645838323971</v>
       </c>
       <c r="E24">
-        <v>0.02177189943321695</v>
+        <v>0.4321515523972741</v>
       </c>
       <c r="F24">
-        <v>0.01755980072015349</v>
+        <v>0.4783343317205106</v>
       </c>
       <c r="G24">
-        <v>0.01147938267120303</v>
+        <v>0.3500331165173397</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.964006517527775E-06</v>
+        <v>-0.2221495776812343</v>
       </c>
       <c r="C25">
-        <v>0.001087959182763426</v>
+        <v>0.1662917071792306</v>
       </c>
       <c r="D25">
-        <v>0.001573209626222301</v>
+        <v>0.1097551615193651</v>
       </c>
       <c r="E25">
-        <v>0.00192656938256824</v>
+        <v>0.4169777570284653</v>
       </c>
       <c r="F25">
-        <v>0.001917822997759566</v>
+        <v>0.3676237703837045</v>
       </c>
       <c r="G25">
-        <v>0.001031037414045184</v>
+        <v>0.2236772216833967</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.210332456673169E-06</v>
+        <v>-0.4205389580338629</v>
       </c>
       <c r="C26">
-        <v>0.0006456309310121598</v>
+        <v>0.0518561067416375</v>
       </c>
       <c r="D26">
-        <v>0.000887022957935067</v>
+        <v>0.06697090583939358</v>
       </c>
       <c r="E26">
-        <v>0.001707862173495587</v>
+        <v>1.004344942998971</v>
       </c>
       <c r="F26">
-        <v>0.001549549657512086</v>
+        <v>0.4330753573574077</v>
       </c>
       <c r="G26">
-        <v>0.0009706651516797022</v>
+        <v>0.5962353028842391</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.2000490737332925</v>
+        <v>-0.01331119624655074</v>
       </c>
       <c r="C27">
-        <v>0.1728773064712598</v>
+        <v>0.012230915554057</v>
       </c>
       <c r="D27">
-        <v>0.1650812969675428</v>
+        <v>0.01782216372795891</v>
       </c>
       <c r="E27">
-        <v>0.6197499819480581</v>
+        <v>0.02312930110567725</v>
       </c>
       <c r="F27">
-        <v>0.2688883152974711</v>
+        <v>0.01933935082640599</v>
       </c>
       <c r="G27">
-        <v>0.1029937274207529</v>
+        <v>0.01514812934992255</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.457385604077874</v>
+        <v>-0.01212365244934129</v>
       </c>
       <c r="C28">
-        <v>0.3559306085650069</v>
+        <v>0.009935423560107981</v>
       </c>
       <c r="D28">
-        <v>0.082288211854623</v>
+        <v>0.01337589155845625</v>
       </c>
       <c r="E28">
-        <v>0.8779742603171561</v>
+        <v>0.02284773051274192</v>
       </c>
       <c r="F28">
-        <v>0.6948507699458155</v>
+        <v>0.0222949094137157</v>
       </c>
       <c r="G28">
-        <v>0.3453499027688247</v>
+        <v>0.01325304120426971</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2461412484981597</v>
+        <v>-0.5195823491198889</v>
       </c>
       <c r="C29">
-        <v>0.1725101581718356</v>
+        <v>0.1905127606901121</v>
       </c>
       <c r="D29">
-        <v>0.03272636995602638</v>
+        <v>-0.05106458045526625</v>
       </c>
       <c r="E29">
-        <v>0.6129535402730021</v>
+        <v>1.110458343040915</v>
       </c>
       <c r="F29">
-        <v>0.4094375756703194</v>
+        <v>0.5619003525852874</v>
       </c>
       <c r="G29">
-        <v>0.2760856094774899</v>
+        <v>0.6944744704681501</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.009541124979949585</v>
+        <v>-0.2807016870289846</v>
       </c>
       <c r="C30">
-        <v>0.007923383259035733</v>
+        <v>0.2087768814947558</v>
       </c>
       <c r="D30">
-        <v>0.01331134685552806</v>
+        <v>0.08098895860755692</v>
       </c>
       <c r="E30">
-        <v>0.01701270224499379</v>
+        <v>0.5474738193954547</v>
       </c>
       <c r="F30">
-        <v>0.01930507320573488</v>
+        <v>0.313636419096001</v>
       </c>
       <c r="G30">
-        <v>0.01169010965268473</v>
+        <v>0.3151670350463822</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0767324445053901</v>
+        <v>-0.2297378803786566</v>
       </c>
       <c r="C31">
-        <v>0.01812202852388784</v>
+        <v>-0.06543639961059608</v>
       </c>
       <c r="D31">
-        <v>0.1085632496321099</v>
+        <v>0.2174677386330265</v>
       </c>
       <c r="E31">
-        <v>0.1527356604998267</v>
+        <v>0.5094799610224979</v>
       </c>
       <c r="F31">
-        <v>0.1161523801489161</v>
+        <v>0.3106260189875645</v>
       </c>
       <c r="G31">
-        <v>0.1057194539212118</v>
+        <v>0.3934787274504331</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.06741995694585128</v>
+        <v>-0.2612338795442225</v>
       </c>
       <c r="C32">
-        <v>0.06387364460906232</v>
+        <v>0.1551194965444842</v>
       </c>
       <c r="D32">
-        <v>0.07730023900788552</v>
+        <v>0.1831771424467639</v>
       </c>
       <c r="E32">
-        <v>0.1487249033088348</v>
+        <v>0.4541948709336354</v>
       </c>
       <c r="F32">
-        <v>0.125707755379442</v>
+        <v>0.3972104453620872</v>
       </c>
       <c r="G32">
-        <v>0.07713458637279655</v>
+        <v>0.2503869458481352</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.006659773550565037</v>
+        <v>-0.2027457415150301</v>
       </c>
       <c r="C33">
-        <v>0.005774626319114805</v>
+        <v>0.1208022044912483</v>
       </c>
       <c r="D33">
-        <v>0.009314589288337973</v>
+        <v>0.195448643208427</v>
       </c>
       <c r="E33">
-        <v>0.01572092206797009</v>
+        <v>0.3876189376926472</v>
       </c>
       <c r="F33">
-        <v>0.01595767443716355</v>
+        <v>0.3248596874991081</v>
       </c>
       <c r="G33">
-        <v>0.01018453071232613</v>
+        <v>0.2374787466035123</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.08355600944711292</v>
+        <v>-0.0123578445861549</v>
       </c>
       <c r="C34">
-        <v>0.04978210412789007</v>
+        <v>0.008887608148665255</v>
       </c>
       <c r="D34">
-        <v>0.09811076026428395</v>
+        <v>0.01442900485235723</v>
       </c>
       <c r="E34">
-        <v>0.1364761489587034</v>
+        <v>0.02141936303703329</v>
       </c>
       <c r="F34">
-        <v>0.1478321368852419</v>
+        <v>0.01927529966742041</v>
       </c>
       <c r="G34">
-        <v>0.1012907586867474</v>
+        <v>0.01945450925767585</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.01078627239773059</v>
+        <v>-0.01055107004275267</v>
       </c>
       <c r="C35">
-        <v>0.009876418924658625</v>
+        <v>0.01026568721599286</v>
       </c>
       <c r="D35">
-        <v>0.009464836120230033</v>
+        <v>0.01264905552181719</v>
       </c>
       <c r="E35">
-        <v>0.01618861121585763</v>
+        <v>0.02051890223458693</v>
       </c>
       <c r="F35">
-        <v>0.02174304545084417</v>
+        <v>0.02051001836673325</v>
       </c>
       <c r="G35">
-        <v>0.0158732269988319</v>
+        <v>0.01290804053298831</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.6934689021620803</v>
+        <v>-0.2425966094263945</v>
       </c>
       <c r="C36">
-        <v>0.901246764098367</v>
+        <v>0.1112515003908353</v>
       </c>
       <c r="D36">
-        <v>-0.3584433564785477</v>
+        <v>0.1730721774358255</v>
       </c>
       <c r="E36">
-        <v>1.745156694193092</v>
+        <v>0.427134360947556</v>
       </c>
       <c r="F36">
-        <v>0.7175668606422936</v>
+        <v>0.3829330146859731</v>
       </c>
       <c r="G36">
-        <v>0.3330987130077416</v>
+        <v>0.2353953741281655</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.689701892951928E-06</v>
+        <v>-0.3437553184320883</v>
       </c>
       <c r="C37">
-        <v>0.001038545993628638</v>
+        <v>-0.2464367458882361</v>
       </c>
       <c r="D37">
-        <v>0.001461762599852167</v>
+        <v>-0.002252708968657774</v>
       </c>
       <c r="E37">
-        <v>0.001801721211602255</v>
+        <v>0.837649303220391</v>
       </c>
       <c r="F37">
-        <v>0.001656752671252429</v>
+        <v>0.5713990003869351</v>
       </c>
       <c r="G37">
-        <v>0.001101608816441799</v>
+        <v>0.6329177474550993</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.4771259594014016</v>
+        <v>-0.2853250692905372</v>
       </c>
       <c r="C38">
-        <v>0.3960625661947469</v>
+        <v>-0.002915450069138014</v>
       </c>
       <c r="D38">
-        <v>0.04587857694099984</v>
+        <v>0.3137559818212802</v>
       </c>
       <c r="E38">
-        <v>0.9898173763797906</v>
+        <v>0.5623150312870437</v>
       </c>
       <c r="F38">
-        <v>0.4027347919248244</v>
+        <v>0.3369304936777474</v>
       </c>
       <c r="G38">
-        <v>0.6875121560547038</v>
+        <v>0.4301659199719963</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.259452981681599E-06</v>
+        <v>-0.01125317702676941</v>
       </c>
       <c r="C39">
-        <v>0.0007782128916036768</v>
+        <v>0.008929541559791723</v>
       </c>
       <c r="D39">
-        <v>0.00128277640719695</v>
+        <v>0.01474322516522429</v>
       </c>
       <c r="E39">
-        <v>0.001722580430681277</v>
+        <v>0.02198180147916633</v>
       </c>
       <c r="F39">
-        <v>0.001321584304496512</v>
+        <v>0.01860085201015575</v>
       </c>
       <c r="G39">
-        <v>0.0008953441162003156</v>
+        <v>0.0152506353341602</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.06314781464054937</v>
+        <v>-0.2043434895376419</v>
       </c>
       <c r="C40">
-        <v>0.02753633351494646</v>
+        <v>0.0239301507897594</v>
       </c>
       <c r="D40">
-        <v>0.09097020974673956</v>
+        <v>0.1241078000935172</v>
       </c>
       <c r="E40">
-        <v>0.1445953001438837</v>
+        <v>0.4290890211021238</v>
       </c>
       <c r="F40">
-        <v>0.124932364158608</v>
+        <v>0.3145397137815284</v>
       </c>
       <c r="G40">
-        <v>0.06878700826074167</v>
+        <v>0.337651284548029</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.201061479276417E-06</v>
+        <v>-0.4570260268548279</v>
       </c>
       <c r="C41">
-        <v>0.0001440324089897774</v>
+        <v>0.2604072409495456</v>
       </c>
       <c r="D41">
-        <v>0.001224039253250969</v>
+        <v>-0.07930863575176481</v>
       </c>
       <c r="E41">
-        <v>0.001515373679331011</v>
+        <v>0.9310089704352532</v>
       </c>
       <c r="F41">
-        <v>0.001656968875465343</v>
+        <v>0.6387359562124451</v>
       </c>
       <c r="G41">
-        <v>0.0009195981820360716</v>
+        <v>0.6497525919776361</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.55438284970064</v>
+        <v>-0.311631737659429</v>
       </c>
       <c r="C42">
-        <v>0.1727116517304839</v>
+        <v>0.02597516035400956</v>
       </c>
       <c r="D42">
-        <v>0.3084992922759126</v>
+        <v>0.2066973852520094</v>
       </c>
       <c r="E42">
-        <v>1.043818564862455</v>
+        <v>0.629659589270512</v>
       </c>
       <c r="F42">
-        <v>0.8081341481825051</v>
+        <v>0.440016080001911</v>
       </c>
       <c r="G42">
-        <v>0.4185193315080479</v>
+        <v>0.3897694768332922</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.118482460719631E-06</v>
+        <v>-0.2240954914635154</v>
       </c>
       <c r="C43">
-        <v>0.0003054357939684229</v>
+        <v>-0.03180520941981937</v>
       </c>
       <c r="D43">
-        <v>0.0009089203979490864</v>
+        <v>0.1135513306315384</v>
       </c>
       <c r="E43">
-        <v>0.001390077297437241</v>
+        <v>0.5120607369090822</v>
       </c>
       <c r="F43">
-        <v>0.001714280011866607</v>
+        <v>0.3672647795928005</v>
       </c>
       <c r="G43">
-        <v>0.001052068983635994</v>
+        <v>0.2061394525574249</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4627217662267859</v>
+        <v>-0.01233821262531071</v>
       </c>
       <c r="C44">
-        <v>0.2103746008981409</v>
+        <v>0.006263652108695052</v>
       </c>
       <c r="D44">
-        <v>0.21900890809745</v>
+        <v>0.01531770265516247</v>
       </c>
       <c r="E44">
-        <v>1.026644738428497</v>
+        <v>0.0232961853152793</v>
       </c>
       <c r="F44">
-        <v>0.5365114188281244</v>
+        <v>0.0210683420461832</v>
       </c>
       <c r="G44">
-        <v>0.5294921551517613</v>
+        <v>0.01525309774798105</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.1783409951428743</v>
+        <v>-6.676518027790974E-06</v>
       </c>
       <c r="C45">
-        <v>0.1353252651875679</v>
+        <v>0.0006051369185428124</v>
       </c>
       <c r="D45">
-        <v>0.141199800214638</v>
+        <v>0.001388295840900871</v>
       </c>
       <c r="E45">
-        <v>0.3217657291304535</v>
+        <v>0.002311028027209203</v>
       </c>
       <c r="F45">
-        <v>0.3882167223842794</v>
+        <v>0.00211778565952182</v>
       </c>
       <c r="G45">
-        <v>0.2345501244777654</v>
+        <v>0.001486281400412577</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3327605557656703</v>
+        <v>-0.1863204229204081</v>
       </c>
       <c r="C46">
-        <v>0.4469528669695242</v>
+        <v>0.0840772279463344</v>
       </c>
       <c r="D46">
-        <v>-0.04463107903398622</v>
+        <v>0.1528767764847362</v>
       </c>
       <c r="E46">
-        <v>0.9403493831955437</v>
+        <v>0.4386603746511374</v>
       </c>
       <c r="F46">
-        <v>0.06690537136408962</v>
+        <v>0.2793431819426763</v>
       </c>
       <c r="G46">
-        <v>0.6186001140174699</v>
+        <v>0.208614992930118</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.485835246968149E-06</v>
+        <v>-0.3419939441764959</v>
       </c>
       <c r="C47">
-        <v>0.0005171103661148922</v>
+        <v>-0.2520768213034477</v>
       </c>
       <c r="D47">
-        <v>0.001083832129989163</v>
+        <v>0.2545077456077616</v>
       </c>
       <c r="E47">
-        <v>0.00191901925781574</v>
+        <v>1.073364268583541</v>
       </c>
       <c r="F47">
-        <v>0.00166985875481861</v>
+        <v>0.2398875834210636</v>
       </c>
       <c r="G47">
-        <v>0.00111783385198278</v>
+        <v>0.3867001525188354</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.009358567224116786</v>
+        <v>-0.01007139091790328</v>
       </c>
       <c r="C48">
-        <v>0.008244393858536774</v>
+        <v>0.007032636488158278</v>
       </c>
       <c r="D48">
-        <v>0.0112599574801192</v>
+        <v>0.01198913773354189</v>
       </c>
       <c r="E48">
-        <v>0.01770139979999935</v>
+        <v>0.02407251966051728</v>
       </c>
       <c r="F48">
-        <v>0.02092469736019202</v>
+        <v>0.01828847837701785</v>
       </c>
       <c r="G48">
-        <v>0.008749104335746591</v>
+        <v>0.01086418222822062</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.735069305436954E-06</v>
+        <v>-0.3624590340760657</v>
       </c>
       <c r="C49">
-        <v>0.0008554349152349782</v>
+        <v>0.3049455588540281</v>
       </c>
       <c r="D49">
-        <v>0.0008144513010459947</v>
+        <v>0.2521430083424436</v>
       </c>
       <c r="E49">
-        <v>0.002097209078599557</v>
+        <v>0.7528347105238734</v>
       </c>
       <c r="F49">
-        <v>0.001964939294003311</v>
+        <v>0.602329911782852</v>
       </c>
       <c r="G49">
-        <v>0.001022409759492202</v>
+        <v>0.1551545814249665</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.162588828403205E-06</v>
+        <v>-0.0013946896266239</v>
       </c>
       <c r="C50">
-        <v>0.0006405479892976484</v>
+        <v>0.001055447844470755</v>
       </c>
       <c r="D50">
-        <v>0.001035593876507513</v>
+        <v>0.00146250352334923</v>
       </c>
       <c r="E50">
-        <v>0.001427201564680717</v>
+        <v>0.002550049364025193</v>
       </c>
       <c r="F50">
-        <v>0.001710800452398028</v>
+        <v>0.001994598741361592</v>
       </c>
       <c r="G50">
-        <v>0.0008501890402505333</v>
+        <v>0.001983752587024099</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.006891712578722521</v>
+        <v>-0.123213710254632</v>
       </c>
       <c r="C51">
-        <v>0.009039251551568589</v>
+        <v>0.05646835723883232</v>
       </c>
       <c r="D51">
-        <v>0.01201187881666127</v>
+        <v>0.1123604763401242</v>
       </c>
       <c r="E51">
-        <v>0.01667903638168935</v>
+        <v>0.1906929892948052</v>
       </c>
       <c r="F51">
-        <v>0.01272373122550879</v>
+        <v>0.1666213043388496</v>
       </c>
       <c r="G51">
-        <v>0.009193888337543688</v>
+        <v>0.1476661354140635</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2400867355748586</v>
+        <v>-0.3439075011698829</v>
       </c>
       <c r="C52">
-        <v>0.06338569320478524</v>
+        <v>0.07381751090868918</v>
       </c>
       <c r="D52">
-        <v>0.342147303946441</v>
+        <v>-0.04822482223637151</v>
       </c>
       <c r="E52">
-        <v>0.507107348975658</v>
+        <v>0.8890548797763096</v>
       </c>
       <c r="F52">
-        <v>0.3538214742634708</v>
+        <v>0.6313247093539904</v>
       </c>
       <c r="G52">
-        <v>0.2330240305534468</v>
+        <v>0.2065601000487127</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.2590909887983192</v>
+        <v>-0.3141802477258409</v>
       </c>
       <c r="C53">
-        <v>0.2900960529076218</v>
+        <v>0.140402393705186</v>
       </c>
       <c r="D53">
-        <v>0.002754688659055353</v>
+        <v>0.1144848221604506</v>
       </c>
       <c r="E53">
-        <v>0.7099624206734292</v>
+        <v>0.6553069019120269</v>
       </c>
       <c r="F53">
-        <v>0.4796010178671052</v>
+        <v>0.5307776445336106</v>
       </c>
       <c r="G53">
-        <v>0.2565853984043413</v>
+        <v>0.2506982352621585</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4060092389096071</v>
+        <v>-0.2373458906050414</v>
       </c>
       <c r="C54">
-        <v>0.03147006590070265</v>
+        <v>0.1513314072171127</v>
       </c>
       <c r="D54">
-        <v>0.267441994442719</v>
+        <v>0.1259398131275354</v>
       </c>
       <c r="E54">
-        <v>1.209568836369709</v>
+        <v>0.4574835101264741</v>
       </c>
       <c r="F54">
-        <v>0.1117853398755641</v>
+        <v>0.3787888323599528</v>
       </c>
       <c r="G54">
-        <v>0.6179081312667916</v>
+        <v>0.235098889863841</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4689218480151962</v>
+        <v>-0.3784422699877199</v>
       </c>
       <c r="C55">
-        <v>0.4571151016352656</v>
+        <v>0.04521547310284338</v>
       </c>
       <c r="D55">
-        <v>-0.1379345604851336</v>
+        <v>0.1294806003056824</v>
       </c>
       <c r="E55">
-        <v>1.0243401707577</v>
+        <v>0.6236182113458857</v>
       </c>
       <c r="F55">
-        <v>0.7019863460597006</v>
+        <v>0.5931702904513321</v>
       </c>
       <c r="G55">
-        <v>0.5344363462238078</v>
+        <v>0.5904805527872797</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.461962574240378E-06</v>
+        <v>-0.01033057125064244</v>
       </c>
       <c r="C56">
-        <v>0.0003786542146773369</v>
+        <v>0.007529406651642393</v>
       </c>
       <c r="D56">
-        <v>0.001148349367397404</v>
+        <v>0.009690330934756479</v>
       </c>
       <c r="E56">
-        <v>0.001878183903498582</v>
+        <v>0.02110393248622018</v>
       </c>
       <c r="F56">
-        <v>0.001518724907238668</v>
+        <v>0.02065196990264826</v>
       </c>
       <c r="G56">
-        <v>0.001311226865337237</v>
+        <v>0.01518508707832272</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.01020706417732553</v>
+        <v>-0.5920803503582009</v>
       </c>
       <c r="C57">
-        <v>0.007293676561274929</v>
+        <v>-0.08288106405289641</v>
       </c>
       <c r="D57">
-        <v>0.01184461242488256</v>
+        <v>0.08943986006199554</v>
       </c>
       <c r="E57">
-        <v>0.01962997642821022</v>
+        <v>1.276467457037813</v>
       </c>
       <c r="F57">
-        <v>0.0186426125670506</v>
+        <v>0.642448145004307</v>
       </c>
       <c r="G57">
-        <v>0.01371294500354292</v>
+        <v>0.473350823739184</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.2735031065214762</v>
+        <v>-0.0839783094299931</v>
       </c>
       <c r="C58">
-        <v>-0.02627356277762606</v>
+        <v>0.0578562331994802</v>
       </c>
       <c r="D58">
-        <v>0.4609019911177857</v>
+        <v>0.08536456660249576</v>
       </c>
       <c r="E58">
-        <v>0.8509893081543294</v>
+        <v>0.1828032201291338</v>
       </c>
       <c r="F58">
-        <v>0.2664413422596985</v>
+        <v>0.1353274592712131</v>
       </c>
       <c r="G58">
-        <v>0.2938853436055997</v>
+        <v>0.09449228332356066</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1619861598977481</v>
+        <v>-0.2605691499269901</v>
       </c>
       <c r="C59">
-        <v>0.1867094639705355</v>
+        <v>0.1245776735882952</v>
       </c>
       <c r="D59">
-        <v>0.01624448962252521</v>
+        <v>0.1176223169527818</v>
       </c>
       <c r="E59">
-        <v>0.3553365161384857</v>
+        <v>0.4970924619915799</v>
       </c>
       <c r="F59">
-        <v>0.2944033094845736</v>
+        <v>0.4467736328772202</v>
       </c>
       <c r="G59">
-        <v>0.2857152141756671</v>
+        <v>0.3559628951239129</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2028487137101482</v>
+        <v>-0.001395299842697507</v>
       </c>
       <c r="C60">
-        <v>0.1634017151260124</v>
+        <v>0.0008486512369270361</v>
       </c>
       <c r="D60">
-        <v>0.2561093498401804</v>
+        <v>0.00179815149215761</v>
       </c>
       <c r="E60">
-        <v>0.4440171621842096</v>
+        <v>0.002298351399600388</v>
       </c>
       <c r="F60">
-        <v>0.359463363770305</v>
+        <v>0.002270475683188868</v>
       </c>
       <c r="G60">
-        <v>0.2166727764076468</v>
+        <v>0.001813810336118211</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.7223233568590067</v>
+        <v>-0.07194024071101938</v>
       </c>
       <c r="C61">
-        <v>0.5261584660938651</v>
+        <v>0.04237266115732146</v>
       </c>
       <c r="D61">
-        <v>0.5628342015203587</v>
+        <v>0.08269077838397529</v>
       </c>
       <c r="E61">
-        <v>1.600642829900053</v>
+        <v>0.1555011401948317</v>
       </c>
       <c r="F61">
-        <v>0.4498755700536558</v>
+        <v>0.1401689589687914</v>
       </c>
       <c r="G61">
-        <v>0.5788568772885943</v>
+        <v>0.08917071592984101</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2085291952157823</v>
+        <v>-0.2224871961441312</v>
       </c>
       <c r="C62">
-        <v>0.1221580712655174</v>
+        <v>0.1073204847198329</v>
       </c>
       <c r="D62">
-        <v>0.1368554998496977</v>
+        <v>0.1193219265217941</v>
       </c>
       <c r="E62">
-        <v>0.3782062848487392</v>
+        <v>0.4140696267574501</v>
       </c>
       <c r="F62">
-        <v>0.3839932116680486</v>
+        <v>0.3606881845590053</v>
       </c>
       <c r="G62">
-        <v>0.2336593126063079</v>
+        <v>0.3245710137910464</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4880353462787322</v>
+        <v>-0.3263271647523103</v>
       </c>
       <c r="C63">
-        <v>0.199969727313755</v>
+        <v>0.1430223797476634</v>
       </c>
       <c r="D63">
-        <v>0.2844221914662878</v>
+        <v>0.2494771892599651</v>
       </c>
       <c r="E63">
-        <v>0.9588067700606815</v>
+        <v>0.8540207181924093</v>
       </c>
       <c r="F63">
-        <v>0.4961305526882607</v>
+        <v>0.4176405891062331</v>
       </c>
       <c r="G63">
-        <v>0.5540729334334151</v>
+        <v>0.2756606839712217</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.006249591639442016</v>
+        <v>-0.009057483743864954</v>
       </c>
       <c r="C64">
-        <v>0.006513452013834394</v>
+        <v>0.005632608933442054</v>
       </c>
       <c r="D64">
-        <v>0.0107319659783023</v>
+        <v>0.01169461395803556</v>
       </c>
       <c r="E64">
-        <v>0.01614968368899144</v>
+        <v>0.02043060864966995</v>
       </c>
       <c r="F64">
-        <v>0.01460305936945864</v>
+        <v>0.01736296149318638</v>
       </c>
       <c r="G64">
-        <v>0.007365008827874398</v>
+        <v>0.01450173475862685</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.07826764302349741</v>
+        <v>-0.2955170524075846</v>
       </c>
       <c r="C65">
-        <v>0.04577787242141822</v>
+        <v>-0.02993564095797947</v>
       </c>
       <c r="D65">
-        <v>0.07823033666467293</v>
+        <v>0.05825590086615958</v>
       </c>
       <c r="E65">
-        <v>0.1586964469717468</v>
+        <v>0.6835190574872402</v>
       </c>
       <c r="F65">
-        <v>0.1509616708771146</v>
+        <v>0.7630022971445622</v>
       </c>
       <c r="G65">
-        <v>0.07927694259686688</v>
+        <v>0.1764263658611288</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.01077084054506908</v>
+        <v>-0.2032768069620803</v>
       </c>
       <c r="C66">
-        <v>0.008749920548776291</v>
+        <v>0.1351492927244992</v>
       </c>
       <c r="D66">
-        <v>0.01491504548770713</v>
+        <v>0.1774104746707683</v>
       </c>
       <c r="E66">
-        <v>0.01822990706273758</v>
+        <v>0.3512624605453213</v>
       </c>
       <c r="F66">
-        <v>0.02114780342251523</v>
+        <v>0.3528468093676473</v>
       </c>
       <c r="G66">
-        <v>0.009716556320803121</v>
+        <v>0.2456841426287892</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.008940202044349621</v>
+        <v>-0.01061940617807976</v>
       </c>
       <c r="C67">
-        <v>0.008841428305016675</v>
+        <v>0.006594664038339793</v>
       </c>
       <c r="D67">
-        <v>0.0136268827383899</v>
+        <v>0.01575182960990638</v>
       </c>
       <c r="E67">
-        <v>0.01690494072688236</v>
+        <v>0.02213444109513739</v>
       </c>
       <c r="F67">
-        <v>0.01593519050299315</v>
+        <v>0.01923826591016974</v>
       </c>
       <c r="G67">
-        <v>0.01281941154567524</v>
+        <v>0.01163287216083161</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.06340482250457993</v>
+        <v>-0.3490050054678354</v>
       </c>
       <c r="C68">
-        <v>0.05079796465846145</v>
+        <v>0.2646030340367808</v>
       </c>
       <c r="D68">
-        <v>0.073029505410088</v>
+        <v>-0.02181302212587905</v>
       </c>
       <c r="E68">
-        <v>0.1364775340815289</v>
+        <v>0.95232734224378</v>
       </c>
       <c r="F68">
-        <v>0.1272998806449513</v>
+        <v>0.3434033806999924</v>
       </c>
       <c r="G68">
-        <v>0.07999929193126457</v>
+        <v>0.4206233137626694</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-1.107546996193529E-06</v>
+        <v>-0.0131241931701788</v>
       </c>
       <c r="C69">
-        <v>0.0004752292717311565</v>
+        <v>0.007369463824624211</v>
       </c>
       <c r="D69">
-        <v>0.00100543651893862</v>
+        <v>0.01407445111820604</v>
       </c>
       <c r="E69">
-        <v>0.001688743001501875</v>
+        <v>0.02298937329689256</v>
       </c>
       <c r="F69">
-        <v>0.001430640072522851</v>
+        <v>0.02231531090283837</v>
       </c>
       <c r="G69">
-        <v>0.0008334027362852127</v>
+        <v>0.0174374411030185</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.4193494541075262</v>
+        <v>-0.2621846051489027</v>
       </c>
       <c r="C70">
-        <v>0.242526329547144</v>
+        <v>0.06136183801921407</v>
       </c>
       <c r="D70">
-        <v>0.08526825795254855</v>
+        <v>0.1623120547798923</v>
       </c>
       <c r="E70">
-        <v>0.6185161915155711</v>
+        <v>0.488851346306893</v>
       </c>
       <c r="F70">
-        <v>1.091073848159132</v>
+        <v>0.5911743096532281</v>
       </c>
       <c r="G70">
-        <v>0.1428774796058324</v>
+        <v>0.1644718782571668</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.4913719610301446</v>
+        <v>-0.008996084875188503</v>
       </c>
       <c r="C71">
-        <v>0.5711865265789684</v>
+        <v>0.003748628365681786</v>
       </c>
       <c r="D71">
-        <v>0.02247372858364814</v>
+        <v>0.01365720314454434</v>
       </c>
       <c r="E71">
-        <v>1.071045963285363</v>
+        <v>0.02183112387210748</v>
       </c>
       <c r="F71">
-        <v>0.3646827119357653</v>
+        <v>0.01637189822815924</v>
       </c>
       <c r="G71">
-        <v>0.5832778919747311</v>
+        <v>0.0121996805841159</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.2388887042712657</v>
+        <v>-0.01272304366561658</v>
       </c>
       <c r="C72">
-        <v>0.2977764185278778</v>
+        <v>0.01255833544652783</v>
       </c>
       <c r="D72">
-        <v>0.1897323430118479</v>
+        <v>0.01356682218472645</v>
       </c>
       <c r="E72">
-        <v>0.8111868651124959</v>
+        <v>0.0210160637563341</v>
       </c>
       <c r="F72">
-        <v>0.4187911339742252</v>
+        <v>0.020852393427542</v>
       </c>
       <c r="G72">
-        <v>-0.009651236614117136</v>
+        <v>0.01781804596791912</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1666094091990641</v>
+        <v>-0.001346435508257929</v>
       </c>
       <c r="C73">
-        <v>0.1275044833938454</v>
+        <v>0.0009917087829880106</v>
       </c>
       <c r="D73">
-        <v>0.1586716052720201</v>
+        <v>0.001945462186227719</v>
       </c>
       <c r="E73">
-        <v>0.3401529106367335</v>
+        <v>0.00226174867782715</v>
       </c>
       <c r="F73">
-        <v>0.3196180934744504</v>
+        <v>0.002043704458524536</v>
       </c>
       <c r="G73">
-        <v>0.1788120342706835</v>
+        <v>0.001729403142460982</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.818033254599291E-06</v>
+        <v>-0.311436689061097</v>
       </c>
       <c r="C74">
-        <v>0.001271175691907174</v>
+        <v>0.02818775337719072</v>
       </c>
       <c r="D74">
-        <v>0.001212761780307063</v>
+        <v>0.08681366750156116</v>
       </c>
       <c r="E74">
-        <v>0.001843162531174241</v>
+        <v>0.9393016925910717</v>
       </c>
       <c r="F74">
-        <v>0.001731251989461873</v>
+        <v>0.2590295799786884</v>
       </c>
       <c r="G74">
-        <v>0.001315331365498435</v>
+        <v>0.4357412870028592</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.647882431319939E-06</v>
+        <v>-0.07750895522572872</v>
       </c>
       <c r="C75">
-        <v>0.001002548135756716</v>
+        <v>0.05951235820488199</v>
       </c>
       <c r="D75">
-        <v>0.001316753305348462</v>
+        <v>0.07594565142127635</v>
       </c>
       <c r="E75">
-        <v>0.001648562458350055</v>
+        <v>0.1579308139279166</v>
       </c>
       <c r="F75">
-        <v>0.001885216704595095</v>
+        <v>0.1448217964593479</v>
       </c>
       <c r="G75">
-        <v>0.001072965463388713</v>
+        <v>0.09107734258029762</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-1.479477780645614E-06</v>
+        <v>-0.1747062957707852</v>
       </c>
       <c r="C76">
-        <v>0.0009632231725322106</v>
+        <v>0.02498745884141677</v>
       </c>
       <c r="D76">
-        <v>0.001036238300786188</v>
+        <v>0.1495906408370089</v>
       </c>
       <c r="E76">
-        <v>0.001828264093667885</v>
+        <v>0.3443287036721357</v>
       </c>
       <c r="F76">
-        <v>0.001643889036288455</v>
+        <v>0.3703613828248627</v>
       </c>
       <c r="G76">
-        <v>0.001037765253760691</v>
+        <v>0.2249090767398457</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.008325475346680392</v>
+        <v>-0.384974718674063</v>
       </c>
       <c r="C77">
-        <v>0.00508216536145522</v>
+        <v>0.0803795652136878</v>
       </c>
       <c r="D77">
-        <v>0.0119105759823472</v>
+        <v>0.01699321890662457</v>
       </c>
       <c r="E77">
-        <v>0.01694524347522654</v>
+        <v>0.6905494355997281</v>
       </c>
       <c r="F77">
-        <v>0.01636569681290954</v>
+        <v>0.7511482462614829</v>
       </c>
       <c r="G77">
-        <v>0.01356835544705254</v>
+        <v>0.5129957989031232</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.0539220413413663</v>
+        <v>-0.1726390743084707</v>
       </c>
       <c r="C78">
-        <v>0.05462012314496986</v>
+        <v>0.0007503462463811333</v>
       </c>
       <c r="D78">
-        <v>0.04073509088103458</v>
+        <v>0.1232627233559516</v>
       </c>
       <c r="E78">
-        <v>0.1359712412563449</v>
+        <v>0.3014244265225917</v>
       </c>
       <c r="F78">
-        <v>0.1325664759424731</v>
+        <v>0.3895653296284391</v>
       </c>
       <c r="G78">
-        <v>0.05255368855491829</v>
+        <v>0.2509454258647805</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.008798021516111693</v>
+        <v>-3.001475358960879E-06</v>
       </c>
       <c r="C79">
-        <v>0.006725928158630229</v>
+        <v>0.001112535165869926</v>
       </c>
       <c r="D79">
-        <v>0.01272218627432456</v>
+        <v>0.001526831983278583</v>
       </c>
       <c r="E79">
-        <v>0.01754866226477527</v>
+        <v>0.002207207284774222</v>
       </c>
       <c r="F79">
-        <v>0.01770682954518032</v>
+        <v>0.002230317025072763</v>
       </c>
       <c r="G79">
-        <v>0.01137462524788711</v>
+        <v>0.001954351194642294</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.1761217733758861</v>
+        <v>-0.009175864450011558</v>
       </c>
       <c r="C80">
-        <v>0.09101897464947659</v>
+        <v>0.00947743347596452</v>
       </c>
       <c r="D80">
-        <v>0.3043686487674743</v>
+        <v>0.01184272800324617</v>
       </c>
       <c r="E80">
-        <v>0.3975424850218738</v>
+        <v>0.01673034848675262</v>
       </c>
       <c r="F80">
-        <v>0.2170297180112146</v>
+        <v>0.018190368970673</v>
       </c>
       <c r="G80">
-        <v>0.1622290736210277</v>
+        <v>0.01647455516927197</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-2.157059295773818E-06</v>
+        <v>-0.1626902234134397</v>
       </c>
       <c r="C81">
-        <v>0.0007567414964128314</v>
+        <v>0.05433266037255355</v>
       </c>
       <c r="D81">
-        <v>0.001841838132183791</v>
+        <v>0.09968515825603314</v>
       </c>
       <c r="E81">
-        <v>0.002224552626956338</v>
+        <v>0.3932867739588598</v>
       </c>
       <c r="F81">
-        <v>0.001718585782612971</v>
+        <v>0.2483996831088405</v>
       </c>
       <c r="G81">
-        <v>0.001197825613305511</v>
+        <v>0.2790736400255952</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.345754287982221</v>
+        <v>-0.1810812554220345</v>
       </c>
       <c r="C82">
-        <v>0.3128856985660663</v>
+        <v>0.1146762417977628</v>
       </c>
       <c r="D82">
-        <v>0.1532461702930462</v>
+        <v>0.1642831914083561</v>
       </c>
       <c r="E82">
-        <v>0.5648327097524024</v>
+        <v>0.3882267351673929</v>
       </c>
       <c r="F82">
-        <v>0.6481342435928633</v>
+        <v>0.2848523401082041</v>
       </c>
       <c r="G82">
-        <v>0.4174752638858452</v>
+        <v>0.2450313335755319</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.009164436996364407</v>
+        <v>-0.07613741804431381</v>
       </c>
       <c r="C83">
-        <v>0.009731205984304913</v>
+        <v>0.06614034320593759</v>
       </c>
       <c r="D83">
-        <v>0.01257025003105317</v>
+        <v>0.08563730354525016</v>
       </c>
       <c r="E83">
-        <v>0.0160702057359328</v>
+        <v>0.1401084714973451</v>
       </c>
       <c r="F83">
-        <v>0.01824439565213676</v>
+        <v>0.1283187776451322</v>
       </c>
       <c r="G83">
-        <v>0.01223205652156041</v>
+        <v>0.1197937580295986</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2056873638535983</v>
+        <v>-0.4999983973067749</v>
       </c>
       <c r="C84">
-        <v>0.0736854141664325</v>
+        <v>0.1266614889191275</v>
       </c>
       <c r="D84">
-        <v>0.1690125567621885</v>
+        <v>0.4616053543840386</v>
       </c>
       <c r="E84">
-        <v>0.4865803016898824</v>
+        <v>1.006743241872115</v>
       </c>
       <c r="F84">
-        <v>0.2851547763910516</v>
+        <v>0.4216637018493807</v>
       </c>
       <c r="G84">
-        <v>0.2776366124098101</v>
+        <v>0.7663267938529535</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.1502289684634623</v>
+        <v>-0.01335597830508189</v>
       </c>
       <c r="C85">
-        <v>0.0325203762380045</v>
+        <v>0.01006969239539901</v>
       </c>
       <c r="D85">
-        <v>0.2321589961029723</v>
+        <v>0.01453429404289681</v>
       </c>
       <c r="E85">
-        <v>0.2615368747453766</v>
+        <v>0.02171527894591387</v>
       </c>
       <c r="F85">
-        <v>0.3793522071842352</v>
+        <v>0.02173688954704919</v>
       </c>
       <c r="G85">
-        <v>0.1265664081494375</v>
+        <v>0.01885977579484022</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.07331457336095887</v>
+        <v>-0.001442987675978188</v>
       </c>
       <c r="C86">
-        <v>0.04561510273185047</v>
+        <v>0.0008546562395435966</v>
       </c>
       <c r="D86">
-        <v>0.10357461225464</v>
+        <v>0.001529492345402538</v>
       </c>
       <c r="E86">
-        <v>0.1259118607120563</v>
+        <v>0.002392131161679812</v>
       </c>
       <c r="F86">
-        <v>0.1374958533763783</v>
+        <v>0.002446591613514826</v>
       </c>
       <c r="G86">
-        <v>0.0904505539011398</v>
+        <v>0.001872360996163672</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.2830811615346994</v>
+        <v>-0.2908970613309804</v>
       </c>
       <c r="C87">
-        <v>0.2499970117750096</v>
+        <v>0.2527584610029658</v>
       </c>
       <c r="D87">
-        <v>-0.04951264081271919</v>
+        <v>0.1897544367975702</v>
       </c>
       <c r="E87">
-        <v>0.8663343535099908</v>
+        <v>0.4903484232901825</v>
       </c>
       <c r="F87">
-        <v>0.4806361937990697</v>
+        <v>0.4202503238079967</v>
       </c>
       <c r="G87">
-        <v>0.1807665512342066</v>
+        <v>0.2985910803670447</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.1684981954434036</v>
+        <v>-0.1570654132335939</v>
       </c>
       <c r="C88">
-        <v>-0.03269748370755736</v>
+        <v>0.03942998600362171</v>
       </c>
       <c r="D88">
-        <v>0.2283606280649278</v>
+        <v>0.1607083573607919</v>
       </c>
       <c r="E88">
-        <v>0.3983235332541062</v>
+        <v>0.367428160229278</v>
       </c>
       <c r="F88">
-        <v>0.2759933803237809</v>
+        <v>0.3251289419892665</v>
       </c>
       <c r="G88">
-        <v>0.2075236589915931</v>
+        <v>0.1922574033713141</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3744851050508233</v>
+        <v>-0.01533521792271215</v>
       </c>
       <c r="C89">
-        <v>0.1957003968332469</v>
+        <v>0.00607743884192324</v>
       </c>
       <c r="D89">
-        <v>0.02349532725984297</v>
+        <v>0.0171460153931031</v>
       </c>
       <c r="E89">
-        <v>0.8323930102441547</v>
+        <v>0.02176569643959392</v>
       </c>
       <c r="F89">
-        <v>0.4627765484429088</v>
+        <v>0.0263702058182811</v>
       </c>
       <c r="G89">
-        <v>0.8031407406047146</v>
+        <v>0.01880068553976669</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3573470756657588</v>
+        <v>-0.001382957847621582</v>
       </c>
       <c r="C90">
-        <v>0.09658675590354331</v>
+        <v>0.0007150953309687124</v>
       </c>
       <c r="D90">
-        <v>-0.137440064897919</v>
+        <v>0.001711286618559301</v>
       </c>
       <c r="E90">
-        <v>0.8419393088401458</v>
+        <v>0.002653219204498312</v>
       </c>
       <c r="F90">
-        <v>0.8124326739807843</v>
+        <v>0.002112292216533449</v>
       </c>
       <c r="G90">
-        <v>0.4338431471006614</v>
+        <v>0.001610490904270188</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.2045010625505667</v>
+        <v>-2.149498326567292E-06</v>
       </c>
       <c r="C91">
-        <v>0.1668146017985043</v>
+        <v>0.0009118467816918667</v>
       </c>
       <c r="D91">
-        <v>-0.06180785438489791</v>
+        <v>0.001504049183131102</v>
       </c>
       <c r="E91">
-        <v>0.6645128794161754</v>
+        <v>0.00202024412996911</v>
       </c>
       <c r="F91">
-        <v>0.5178972617295736</v>
+        <v>0.001678411713620179</v>
       </c>
       <c r="G91">
-        <v>0.2608813208052422</v>
+        <v>0.00153307138350776</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2682105615810168</v>
+        <v>-2.270472228972302E-06</v>
       </c>
       <c r="C92">
-        <v>0.2016284998344575</v>
+        <v>0.0007153261187285408</v>
       </c>
       <c r="D92">
-        <v>0.4134644740487667</v>
+        <v>0.001269427970744141</v>
       </c>
       <c r="E92">
-        <v>0.5401275401078443</v>
+        <v>0.002044723886237369</v>
       </c>
       <c r="F92">
-        <v>0.3832290208760194</v>
+        <v>0.002034609305930015</v>
       </c>
       <c r="G92">
-        <v>0.06069337507729024</v>
+        <v>0.001610388430948911</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.191004995442155</v>
+        <v>-0.0107264583811355</v>
       </c>
       <c r="C93">
-        <v>0.1484101735013262</v>
+        <v>0.006055045514450312</v>
       </c>
       <c r="D93">
-        <v>0.07004963205968844</v>
+        <v>0.01209581037600785</v>
       </c>
       <c r="E93">
-        <v>0.4336147469232066</v>
+        <v>0.02178746608451998</v>
       </c>
       <c r="F93">
-        <v>0.3365588662867818</v>
+        <v>0.02130970661892816</v>
       </c>
       <c r="G93">
-        <v>0.3183998550954772</v>
+        <v>0.01386385318853431</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.414816945312141E-06</v>
+        <v>-0.2245589200868472</v>
       </c>
       <c r="C94">
-        <v>0.0009474689479061054</v>
+        <v>0.1829819789131729</v>
       </c>
       <c r="D94">
-        <v>0.0007152165374629553</v>
+        <v>-0.04719606333156977</v>
       </c>
       <c r="E94">
-        <v>0.001635382729484635</v>
+        <v>0.6630640701263697</v>
       </c>
       <c r="F94">
-        <v>0.001801855558644481</v>
+        <v>0.3267417597126192</v>
       </c>
       <c r="G94">
-        <v>0.001180842575459925</v>
+        <v>0.2446961045711872</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.659404411771674E-06</v>
+        <v>-0.2252541472783512</v>
       </c>
       <c r="C95">
-        <v>0.001106686535604962</v>
+        <v>-0.0395737517329843</v>
       </c>
       <c r="D95">
-        <v>0.0009847307187317304</v>
+        <v>0.09231620422184143</v>
       </c>
       <c r="E95">
-        <v>0.001594245973992804</v>
+        <v>0.432238631142017</v>
       </c>
       <c r="F95">
-        <v>0.001899635247725334</v>
+        <v>0.4185110964420442</v>
       </c>
       <c r="G95">
-        <v>0.001374184734441793</v>
+        <v>0.2806600663774987</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.007901412491597631</v>
+        <v>-0.290646010824819</v>
       </c>
       <c r="C96">
-        <v>0.004111537011876884</v>
+        <v>0.02276113995123631</v>
       </c>
       <c r="D96">
-        <v>0.01342104175614713</v>
+        <v>-0.04064044953092327</v>
       </c>
       <c r="E96">
-        <v>0.01699402057643782</v>
+        <v>0.6342481605550987</v>
       </c>
       <c r="F96">
-        <v>0.01615873107690853</v>
+        <v>0.8380900633881494</v>
       </c>
       <c r="G96">
-        <v>0.01077362129464131</v>
+        <v>0.234835473885454</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1556110651273894</v>
+        <v>-5.319060433817711E-06</v>
       </c>
       <c r="C97">
-        <v>0.03448312391641284</v>
+        <v>0.0003662254562832859</v>
       </c>
       <c r="D97">
-        <v>0.2127015257340756</v>
+        <v>0.001112566232859925</v>
       </c>
       <c r="E97">
-        <v>0.4177000454770671</v>
+        <v>0.00234343165542439</v>
       </c>
       <c r="F97">
-        <v>0.3386592573822856</v>
+        <v>0.001899397584350443</v>
       </c>
       <c r="G97">
-        <v>0.1937895500768465</v>
+        <v>0.001444844386224569</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.460452218809202E-06</v>
+        <v>-0.01215839839130243</v>
       </c>
       <c r="C98">
-        <v>0.0008977458615725555</v>
+        <v>0.006941427337750212</v>
       </c>
       <c r="D98">
-        <v>0.001164821138557119</v>
+        <v>0.0109346683768796</v>
       </c>
       <c r="E98">
-        <v>0.001834214178808251</v>
+        <v>0.02447598332368624</v>
       </c>
       <c r="F98">
-        <v>0.001623914140850813</v>
+        <v>0.02052452511751259</v>
       </c>
       <c r="G98">
-        <v>0.0009176058011282625</v>
+        <v>0.01715370579444184</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1966929364556096</v>
+        <v>-0.8692137355195334</v>
       </c>
       <c r="C99">
-        <v>0.2019531602386688</v>
+        <v>0.4839069549001049</v>
       </c>
       <c r="D99">
-        <v>0.2012637195626436</v>
+        <v>0.4396325159149931</v>
       </c>
       <c r="E99">
-        <v>0.3123143598701723</v>
+        <v>1.459001536220154</v>
       </c>
       <c r="F99">
-        <v>0.3378099072872904</v>
+        <v>0.3380757509587158</v>
       </c>
       <c r="G99">
-        <v>0.1945400521056238</v>
+        <v>0.9712378665944035</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.910017833012754E-06</v>
+        <v>-0.01024238959216914</v>
       </c>
       <c r="C100">
-        <v>0.0007891440680709324</v>
+        <v>0.009148181977951543</v>
       </c>
       <c r="D100">
-        <v>0.001311716134549935</v>
+        <v>0.01500128121084074</v>
       </c>
       <c r="E100">
-        <v>0.002152433946803542</v>
+        <v>0.01989900907530654</v>
       </c>
       <c r="F100">
-        <v>0.001803799234496968</v>
+        <v>0.01770010223810524</v>
       </c>
       <c r="G100">
-        <v>0.001244397752867791</v>
+        <v>0.0150168584197084</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.009712208991055984</v>
+        <v>-0.3925414711891059</v>
       </c>
       <c r="C101">
-        <v>0.008297302965486125</v>
+        <v>0.1361005748324312</v>
       </c>
       <c r="D101">
-        <v>0.01247738998753821</v>
+        <v>0.05131581331900111</v>
       </c>
       <c r="E101">
-        <v>0.01884673663007233</v>
+        <v>0.8782085492120738</v>
       </c>
       <c r="F101">
-        <v>0.01661607749973755</v>
+        <v>0.7157898246569518</v>
       </c>
       <c r="G101">
-        <v>0.01414062588291807</v>
+        <v>0.2512772477927158</v>
       </c>
     </row>
   </sheetData>
